--- a/uploads/process-files/2026/01/PF20260125013.xlsx
+++ b/uploads/process-files/2026/01/PF20260125013.xlsx
@@ -607,6 +607,614 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379704</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
